--- a/SimpleTools/data/DataDriven.xlsx
+++ b/SimpleTools/data/DataDriven.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-repos\SQA-JAVA\SimpleTools\SimpleTools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D97E8A-2165-482B-9F4B-CB86200F9D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEBFEA0-1634-4E9E-913C-9411E304E9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1038,7 +1038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CA07B5-C9E6-4064-82D7-3691CAD79329}">
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C118"/>
     </sheetView>
   </sheetViews>
@@ -2351,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891E867-9110-48A6-96A6-B3A76E480AEB}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
